--- a/trunk/Analisis/Indicadores.xlsx
+++ b/trunk/Analisis/Indicadores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Temas</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Sede</t>
+  </si>
+  <si>
+    <t>Estado de cuenta</t>
+  </si>
+  <si>
+    <t>Ejecutivo de cuenta</t>
+  </si>
+  <si>
+    <t>Cliente: tipo de clientes</t>
   </si>
 </sst>
 </file>
@@ -106,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -204,12 +219,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,14 +557,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="C2" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -584,7 +601,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -621,25 +638,23 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
+      <c r="B11" s="7"/>
+      <c r="C11" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
+      <c r="B12" s="7"/>
+      <c r="C12" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
@@ -647,65 +662,67 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
@@ -713,27 +730,43 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="5" t="s">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="A7:A23"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="A7:A25"/>
     <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
